--- a/trunk/Analisis/CalculoCambioCategorias.xlsx
+++ b/trunk/Analisis/CalculoCambioCategorias.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
   <si>
     <t>Fecha Sistema</t>
   </si>
@@ -42,12 +43,27 @@
   <si>
     <t>Fecha Desde y Fecha Hasta serán valores calculados según Fecha Sistema</t>
   </si>
+  <si>
+    <t>CAT. 1</t>
+  </si>
+  <si>
+    <t>CAT.2</t>
+  </si>
+  <si>
+    <t>FECHA ALTA</t>
+  </si>
+  <si>
+    <t>CUOTAS A GENERAR</t>
+  </si>
+  <si>
+    <t>MES-AÑO TITULO</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,8 +71,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -66,6 +90,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -134,11 +182,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -151,7 +200,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -159,6 +227,128 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>523876</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="1 Flecha arriba"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="123826" y="1514475"/>
+          <a:ext cx="400050" cy="11315700"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>174129</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>83047</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="264560" cy="555665"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="2 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="28576" y="12039600"/>
+          <a:ext cx="555665" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" b="1"/>
+            <a:t>CAT.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" b="1" baseline="0"/>
+            <a:t> 1</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -446,40 +636,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="4" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
@@ -512,168 +702,327 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>14</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9">
+        <f t="shared" ref="E4" si="0">B4-2</f>
+        <v>-1</v>
+      </c>
+      <c r="F4" s="9">
+        <f t="shared" ref="F4" si="1">C4-5</f>
+        <v>9</v>
+      </c>
+      <c r="G4" s="10">
+        <v>31</v>
+      </c>
+      <c r="H4" s="9">
+        <f t="shared" ref="H4" si="2">B4</f>
+        <v>1</v>
+      </c>
+      <c r="I4" s="9">
+        <f t="shared" ref="I4" si="3">C4-5</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10">
+        <v>31</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="10">
+        <v>31</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="10">
+        <v>31</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="10">
+        <v>31</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B9">
         <v>3</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C9" s="2">
         <v>15</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3">
-        <f>B4-2</f>
-        <v>1</v>
-      </c>
-      <c r="F4" s="3">
-        <f>C4-5</f>
-        <v>10</v>
-      </c>
-      <c r="G4">
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" ref="E9:E16" si="4">B9-2</f>
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" ref="F9:F16" si="5">C9-5</f>
+        <v>10</v>
+      </c>
+      <c r="G9">
         <v>31</v>
       </c>
-      <c r="H4" s="3">
-        <f>B4</f>
+      <c r="H9" s="3">
+        <f t="shared" ref="H9:H16" si="6">B9</f>
         <v>3</v>
       </c>
-      <c r="I4" s="3">
-        <f>C4-5</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5">
+      <c r="I9" s="3">
+        <f t="shared" ref="I9:I16" si="7">C9-5</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B10">
         <v>6</v>
       </c>
-      <c r="C5">
+      <c r="C10">
         <v>15</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3">
-        <f>B5-2</f>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="F5" s="3">
-        <f>C5-5</f>
-        <v>10</v>
-      </c>
-      <c r="G5">
+      <c r="F10" s="3">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="G10">
         <v>31</v>
       </c>
-      <c r="H5" s="3">
-        <f>B5</f>
+      <c r="H10" s="3">
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="I5" s="3">
-        <f>C5-5</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6">
+      <c r="I10" s="3">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>9</v>
-      </c>
-      <c r="C6">
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
         <v>15</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3">
-        <f>B6-2</f>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="F6" s="3">
-        <f>C6-5</f>
-        <v>10</v>
-      </c>
-      <c r="G6">
+      <c r="F11" s="3">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="G11">
         <v>31</v>
       </c>
-      <c r="H6" s="3">
-        <f>B6</f>
-        <v>9</v>
-      </c>
-      <c r="I6" s="3">
-        <f>C6-5</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7">
+      <c r="H11" s="3">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="I11" s="3">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B12">
         <v>12</v>
       </c>
-      <c r="C7">
+      <c r="C12">
         <v>15</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3">
-        <f>B7-2</f>
-        <v>10</v>
-      </c>
-      <c r="F7" s="3">
-        <f>C7-5</f>
-        <v>10</v>
-      </c>
-      <c r="G7">
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="G12">
         <v>31</v>
       </c>
-      <c r="H7" s="3">
-        <f>B7</f>
+      <c r="H12" s="3">
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="I7" s="3">
-        <f>C7-5</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8">
+      <c r="I12" s="3">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
         <v>5</v>
       </c>
-      <c r="B8">
+      <c r="B13">
         <v>3</v>
       </c>
-      <c r="C8">
+      <c r="C13">
         <v>16</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="8">
-        <f>B8-2</f>
-        <v>1</v>
-      </c>
-      <c r="F8" s="8">
-        <f>C8-5</f>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="G8">
+      <c r="G13">
         <v>31</v>
       </c>
-      <c r="H8" s="8">
-        <f>B8</f>
+      <c r="H13" s="4">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="I8" s="8">
-        <f>C8-5</f>
+      <c r="I13" s="4">
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>16</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="G14">
+        <v>31</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="B15">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>16</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="G15">
+        <v>31</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -685,4 +1034,823 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F86"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="L61" sqref="L61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="17"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="B2" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" s="19">
+        <v>2009</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" s="19"/>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="B5" s="19"/>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="B6" s="19"/>
+      <c r="C6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" s="19"/>
+      <c r="C7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3">
+        <v>0</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="13">
+        <v>6</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>7</v>
+      </c>
+      <c r="B15" s="19">
+        <v>2010</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>8</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>9</v>
+      </c>
+      <c r="B17" s="19"/>
+      <c r="C17" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>10</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>11</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>12</v>
+      </c>
+      <c r="B20" s="19"/>
+      <c r="C20" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>13</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>14</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>15</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>16</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>17</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>18</v>
+      </c>
+      <c r="B26" s="19"/>
+      <c r="C26" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>19</v>
+      </c>
+      <c r="B27" s="19">
+        <v>2011</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>20</v>
+      </c>
+      <c r="B28" s="19"/>
+      <c r="C28" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>21</v>
+      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>22</v>
+      </c>
+      <c r="B30" s="19"/>
+      <c r="C30" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>23</v>
+      </c>
+      <c r="B31" s="19"/>
+      <c r="C31" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>24</v>
+      </c>
+      <c r="B32" s="19"/>
+      <c r="C32" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>25</v>
+      </c>
+      <c r="B33" s="19"/>
+      <c r="C33" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>26</v>
+      </c>
+      <c r="B34" s="19"/>
+      <c r="C34" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>27</v>
+      </c>
+      <c r="B35" s="19"/>
+      <c r="C35" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>28</v>
+      </c>
+      <c r="B36" s="19"/>
+      <c r="C36" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>29</v>
+      </c>
+      <c r="B37" s="19"/>
+      <c r="C37" s="1">
+        <v>11</v>
+      </c>
+      <c r="F37" s="16"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>30</v>
+      </c>
+      <c r="B38" s="19"/>
+      <c r="C38" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>31</v>
+      </c>
+      <c r="B39" s="19">
+        <v>2012</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>32</v>
+      </c>
+      <c r="B40" s="19"/>
+      <c r="C40" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>33</v>
+      </c>
+      <c r="B41" s="19"/>
+      <c r="C41" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>34</v>
+      </c>
+      <c r="B42" s="19"/>
+      <c r="C42" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>35</v>
+      </c>
+      <c r="B43" s="19"/>
+      <c r="C43" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>36</v>
+      </c>
+      <c r="B44" s="19"/>
+      <c r="C44" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>37</v>
+      </c>
+      <c r="B45" s="19"/>
+      <c r="C45" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>38</v>
+      </c>
+      <c r="B46" s="19"/>
+      <c r="C46" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>39</v>
+      </c>
+      <c r="B47" s="19"/>
+      <c r="C47" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>40</v>
+      </c>
+      <c r="B48" s="19"/>
+      <c r="C48" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>41</v>
+      </c>
+      <c r="B49" s="19"/>
+      <c r="C49" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>42</v>
+      </c>
+      <c r="B50" s="19"/>
+      <c r="C50" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>43</v>
+      </c>
+      <c r="B51" s="19">
+        <v>2013</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>44</v>
+      </c>
+      <c r="B52" s="19"/>
+      <c r="C52" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>45</v>
+      </c>
+      <c r="B53" s="19"/>
+      <c r="C53" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>46</v>
+      </c>
+      <c r="B54" s="19"/>
+      <c r="C54" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>47</v>
+      </c>
+      <c r="B55" s="19"/>
+      <c r="C55" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>48</v>
+      </c>
+      <c r="B56" s="19"/>
+      <c r="C56" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>49</v>
+      </c>
+      <c r="B57" s="19"/>
+      <c r="C57" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <v>50</v>
+      </c>
+      <c r="B58" s="19"/>
+      <c r="C58" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>51</v>
+      </c>
+      <c r="B59" s="19"/>
+      <c r="C59" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <v>52</v>
+      </c>
+      <c r="B60" s="19"/>
+      <c r="C60" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <v>53</v>
+      </c>
+      <c r="B61" s="19"/>
+      <c r="C61" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
+        <v>54</v>
+      </c>
+      <c r="B62" s="19"/>
+      <c r="C62" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63">
+        <v>55</v>
+      </c>
+      <c r="B63" s="19">
+        <v>2014</v>
+      </c>
+      <c r="C63" s="12">
+        <v>1</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64">
+        <v>56</v>
+      </c>
+      <c r="B64" s="19"/>
+      <c r="C64" s="12">
+        <v>2</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65">
+        <v>57</v>
+      </c>
+      <c r="B65" s="19"/>
+      <c r="C65" s="12">
+        <v>3</v>
+      </c>
+      <c r="D65" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66">
+        <v>58</v>
+      </c>
+      <c r="B66" s="19"/>
+      <c r="C66" s="12">
+        <v>4</v>
+      </c>
+      <c r="D66" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67">
+        <v>59</v>
+      </c>
+      <c r="B67" s="19"/>
+      <c r="C67" s="12">
+        <v>5</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="14">
+        <v>60</v>
+      </c>
+      <c r="B68" s="19"/>
+      <c r="C68" s="12">
+        <v>6</v>
+      </c>
+      <c r="D68" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69">
+        <v>61</v>
+      </c>
+      <c r="B69" s="19"/>
+      <c r="C69" s="11">
+        <v>7</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70">
+        <v>62</v>
+      </c>
+      <c r="B70" s="19"/>
+      <c r="C70" s="11">
+        <v>8</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71">
+        <v>63</v>
+      </c>
+      <c r="B71" s="19"/>
+      <c r="C71" s="11">
+        <v>9</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72">
+        <v>64</v>
+      </c>
+      <c r="B72" s="19"/>
+      <c r="C72" s="11">
+        <v>10</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73">
+        <v>65</v>
+      </c>
+      <c r="B73" s="19"/>
+      <c r="C73" s="11">
+        <v>11</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74">
+        <v>66</v>
+      </c>
+      <c r="B74" s="19"/>
+      <c r="C74" s="11">
+        <v>12</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75">
+        <v>67</v>
+      </c>
+      <c r="B75" s="19">
+        <v>2015</v>
+      </c>
+      <c r="C75" s="11">
+        <v>1</v>
+      </c>
+      <c r="D75" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76">
+        <v>68</v>
+      </c>
+      <c r="B76" s="19"/>
+      <c r="C76" s="11">
+        <v>2</v>
+      </c>
+      <c r="D76" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="B77" s="19"/>
+      <c r="C77" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="B78" s="19"/>
+      <c r="C78" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="B79" s="19"/>
+      <c r="C79" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="B80" s="19"/>
+      <c r="C80" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3">
+      <c r="B81" s="19"/>
+      <c r="C81" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3">
+      <c r="B82" s="19"/>
+      <c r="C82" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3">
+      <c r="B83" s="19"/>
+      <c r="C83" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3">
+      <c r="B84" s="19"/>
+      <c r="C84" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3">
+      <c r="B85" s="19"/>
+      <c r="C85" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3">
+      <c r="B86" s="19"/>
+      <c r="C86" s="1">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B75:B86"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B3:B14"/>
+    <mergeCell ref="B15:B26"/>
+    <mergeCell ref="B27:B38"/>
+    <mergeCell ref="B39:B50"/>
+    <mergeCell ref="B51:B62"/>
+    <mergeCell ref="B63:B74"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>